--- a/mary_invest.xlsx
+++ b/mary_invest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\excel-dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF541B89-A183-4BEE-A6E7-C03F1FC6F7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DD09B-2E4A-44D7-99BA-A5B21A9B7485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{802F0224-698D-4754-9F8C-A3210C3BAFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Invest" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aporte">Invest!$D$14</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Quanto investir por mês?</t>
   </si>
@@ -95,7 +96,67 @@
     <t>Salário</t>
   </si>
   <si>
-    <t>Sugestão de Investimento</t>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Convervador</t>
+  </si>
+  <si>
+    <t>VALOR A SER APLICADO POR MÊS</t>
+  </si>
+  <si>
+    <t>TIPO DE FII</t>
+  </si>
+  <si>
+    <t>Percentual Sugerido</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>PAPEL</t>
+  </si>
+  <si>
+    <t>TIJOLOS</t>
+  </si>
+  <si>
+    <t>HÍBRIDOS</t>
+  </si>
+  <si>
+    <t>FOFs</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>HOTELARIAS</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CHAVE</t>
+  </si>
+  <si>
+    <t>Agressivo</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>Sugestão de Investimento (30%)</t>
   </si>
 </sst>
 </file>
@@ -105,9 +166,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +223,17 @@
       <color theme="0"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F007E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -371,16 +447,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3F007E"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3F007E"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF3F007E"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3F007E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3F007E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF3F007E"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3F007E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,7 +527,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -400,6 +535,75 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,15 +621,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -451,78 +646,76 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3F007E"/>
       <color rgb="FFD4C2F4"/>
       <color rgb="FFDCBCF6"/>
-      <color rgb="FF3F007E"/>
       <color rgb="FF6600CC"/>
     </mruColors>
   </colors>
@@ -537,20 +730,828 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Invest!$B$31:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PAPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TIJOLOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HÍBRIDOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOFs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HOTELARIAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Invest!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF6F-4AFA-B5A8-89EBB3655E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181365440"/>
+        <c:axId val="181367360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181365440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181367360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181367360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181365440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1209676</xdr:colOff>
+      <xdr:colOff>1391893</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>134593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1585964</xdr:colOff>
+      <xdr:colOff>1396706</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,8 +1591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819276" y="142875"/>
-          <a:ext cx="2586088" cy="962025"/>
+          <a:off x="2004806" y="134593"/>
+          <a:ext cx="2588987" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,6 +1603,42 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588064</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>869673</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8F04F1-CFE4-468D-2A5E-EBCFBB3BF584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -924,16 +1961,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067C0463-370B-4757-9C5C-6DA3C41E9436}">
-  <dimension ref="A7:F25"/>
+  <dimension ref="A7:F65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
@@ -944,47 +1981,47 @@
   <sheetData>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="2:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23">
+      <c r="B11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="9">
         <f>salario*30%</f>
         <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.6">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="2:4" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
@@ -1018,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="41">
+      <c r="D17" s="19">
         <f>FV(rendimento_mensal,qtd_anos*12,aporte*-1)</f>
         <v>2547.6772001113118</v>
       </c>
@@ -1028,17 +2065,17 @@
         <v>3</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="42">
+      <c r="D18" s="20">
         <f>patrimonio*rendimento_carteira</f>
         <v>20.381417600890494</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1047,14 +2084,14 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="11">
         <f>FV($D$16,$A21*12,$D$14*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="12">
         <f>C21*rendimento_carteira</f>
         <v>43.564203676232346</v>
       </c>
@@ -1063,14 +2100,14 @@
       <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="14">
         <f>FV($D$16,$A22*12,$D$14*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="15">
         <f>C22*rendimento_carteira</f>
         <v>134.04306239758023</v>
       </c>
@@ -1079,14 +2116,14 @@
       <c r="A23" s="2">
         <v>10</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="14">
         <f>FV($D$16,$A23*12,$D$14*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="15">
         <f>C23*rendimento_carteira</f>
         <v>389.25474004827549</v>
       </c>
@@ -1095,14 +2132,14 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="14">
         <f>FV($D$16,$A24*12,$D$14*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="15">
         <f>C24*rendimento_carteira</f>
         <v>1800.317440155329</v>
       </c>
@@ -1111,34 +2148,487 @@
       <c r="A25" s="2">
         <v>30</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="17">
         <f>FV($D$16,$A25*12,$D$14*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="18">
         <f>C25*rendimento_carteira</f>
         <v>6915.4714480075436</v>
       </c>
     </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="53">
+        <f>aporte</f>
+        <v>200</v>
+      </c>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="62">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B31,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="63">
+        <f>C31*$C$28</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="64">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B32,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.45</v>
+      </c>
+      <c r="D32" s="63">
+        <f t="shared" ref="D32:D36" si="0">C32*$C$28</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="64">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B33,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="63">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="64">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B34,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="63">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="64">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B35,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="63">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="64">
+        <f>VLOOKUP($D$27&amp;"-"&amp;B36,Planilha1!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67">
+        <f>SUM(D31:D36)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="12">
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27" xr:uid="{B2DC70AA-99D7-4216-884B-A25986ED5F6D}">
+      <formula1>"Convervador,Moderado,Agressivo"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F14600-EC14-4990-ADDE-4E73283814DE}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>$B$3&amp;"-"&amp;C3</f>
+        <v>Convervador-PAPEL</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A20" si="0">$B$3&amp;"-"&amp;C4</f>
+        <v>Convervador-TIJOLOS</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Convervador-HÍBRIDOS</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Convervador-FOFs</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Convervador-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>Convervador-HOTELARIAS</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>$B$9&amp;"-"&amp;C9</f>
+        <v>Moderado-PAPEL</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" ref="A10:A14" si="1">$B$9&amp;"-"&amp;C10</f>
+        <v>Moderado-TIJOLOS</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-HÍBRIDOS</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-FOFs</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-HOTELARIAS</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>$B$15&amp;"-"&amp;C15</f>
+        <v>Agressivo-PAPEL</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ref="A16:A20" si="2">$B$15&amp;"-"&amp;C16</f>
+        <v>Agressivo-TIJOLOS</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-HÍBRIDOS</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-FOFs</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-HOTELARIAS</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>